--- a/02.HARDWARE/V2-ROVER R-1/02.BOM/TEST_CPU.xlsx
+++ b/02.HARDWARE/V2-ROVER R-1/02.BOM/TEST_CPU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\TEAMDR~1\JRODRI~1\Repositorios\01.Rover\02.HARDWARE\V2-ROVER R-1\02.BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\02.HARDWARE\V2-ROVER R-1\02.BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6AD3095B-38E0-4978-9714-9FB9090FEA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9A02D8-91F3-41DE-BA79-631EAA462151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_CPU" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Qty</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Package</t>
   </si>
   <si>
-    <t>C3, C4, C5, C13</t>
-  </si>
-  <si>
     <t>2X10</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R23, R25, R26, R27, R28, R30</t>
-  </si>
-  <si>
     <t>1.0uF</t>
   </si>
   <si>
@@ -71,15 +65,6 @@
     <t>100n</t>
   </si>
   <si>
-    <t>C1, C2, C8, C9, C10, C11</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R40, R66</t>
-  </si>
-  <si>
     <t>2N7002PW</t>
   </si>
   <si>
@@ -158,18 +143,12 @@
     <t>S3, S4, S5</t>
   </si>
   <si>
-    <t>DIODE</t>
-  </si>
-  <si>
     <t>INTEGRATED CIRCUIT</t>
   </si>
   <si>
     <t>SWITCH</t>
   </si>
   <si>
-    <t>SMD 0805</t>
-  </si>
-  <si>
     <t>RESISTOR</t>
   </si>
   <si>
@@ -203,12 +182,6 @@
     <t>BOM VERSION</t>
   </si>
   <si>
-    <t>JUMPER</t>
-  </si>
-  <si>
-    <t>SOT223</t>
-  </si>
-  <si>
     <t>TEST CPU</t>
   </si>
   <si>
@@ -231,12 +204,105 @@
   </si>
   <si>
     <t>HISTORY</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>1k2</t>
+  </si>
+  <si>
+    <t>51k</t>
+  </si>
+  <si>
+    <t>910k</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>180k</t>
+  </si>
+  <si>
+    <t>68k</t>
+  </si>
+  <si>
+    <t>430k</t>
+  </si>
+  <si>
+    <t>N:C</t>
+  </si>
+  <si>
+    <t>2k2</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>SOT-223_5MC_MCH-M</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C8, C9, C10, C11</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>R1, R3</t>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14, R16, R28, R30</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R17, R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R2, R4</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R5, R7, R9</t>
+  </si>
+  <si>
+    <t>R6, R8, R10</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>DIODE LED</t>
+  </si>
+  <si>
+    <t>SMD-0805</t>
+  </si>
+  <si>
+    <t>Asiganacion de valores a componentes pasivos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -864,15 +930,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,6 +944,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -964,14 +1030,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1009,7 +1075,9 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{095F6C67-E345-4220-A656-D768AF9583A1}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1022,22 +1090,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla13" displayName="Tabla13" ref="A6:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="10">
-  <autoFilter ref="A6:J24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla13" displayName="Tabla13" ref="A6:J36" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+  <autoFilter ref="A6:J36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J24">
     <sortCondition ref="D6:D24"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Position" dataDxfId="9"/>
-    <tableColumn id="2" name="NEW" dataDxfId="8"/>
-    <tableColumn id="3" name="Qty" dataDxfId="7"/>
-    <tableColumn id="4" name="Part" dataDxfId="6"/>
-    <tableColumn id="5" name="Value" dataDxfId="5"/>
-    <tableColumn id="6" name="Device" dataDxfId="4"/>
-    <tableColumn id="7" name="Package" dataDxfId="3"/>
-    <tableColumn id="8" name="Unit Price" dataDxfId="2"/>
-    <tableColumn id="9" name="Extended Price" dataDxfId="1"/>
-    <tableColumn id="10" name="Link" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Position" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NEW" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Qty" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Part" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Value" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Device" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Package" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Unit Price" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Extended Price" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1332,18 +1400,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,26 +1431,26 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
@@ -1392,16 +1460,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
@@ -1413,13 +1481,13 @@
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1428,19 +1496,19 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1451,19 +1519,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1478,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1502,16 +1573,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1526,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1547,16 +1618,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1571,13 +1642,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1592,16 +1663,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1616,16 +1687,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1640,16 +1711,16 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1664,40 +1735,40 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1709,19 +1780,19 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1733,19 +1804,19 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1757,19 +1828,19 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1784,16 +1855,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1805,19 +1876,19 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1829,20 +1900,308 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <v>360</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1856,11 +2215,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,48 +2228,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>69</v>
+      <c r="A1" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>65</v>
+      <c r="A3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>44943</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="D5" s="13"/>
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44950</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
